--- a/Material_del_proyecto.xlsx
+++ b/Material_del_proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferda\Desktop\Diplomado Samsung IoT\Proyecto Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40031D24-8D31-4F93-829C-1CA26A4AA545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EC7D1C-83E1-4551-BAEE-A5411D35AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{99AF8322-B872-422D-B281-A05102FBC707}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>https://uelectronics.com/producto/adaptador-usb-tipo-a-macho-a-dip-pcb-4-pines/</t>
   </si>
   <si>
-    <t>https://www.steren.com.mx/telefonia-celulares-y-tablets/cargadores-usb</t>
-  </si>
-  <si>
     <t>Adaptador USB</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Material para circuito impreso</t>
+  </si>
+  <si>
+    <t>https://www.steren.com.mx/cargador-usb-rapido.html</t>
   </si>
 </sst>
 </file>
@@ -258,6 +258,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -265,9 +268,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -587,7 +587,7 @@
   <dimension ref="A2:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -706,10 +706,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -794,15 +794,15 @@
         <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -815,28 +815,28 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -856,18 +856,18 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -880,14 +880,14 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
-        <v>47</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -900,16 +900,16 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -922,16 +922,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="4" t="s">
-        <v>49</v>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -944,14 +944,14 @@
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="5"/>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -964,31 +964,31 @@
         <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27">
         <f>SUM(F3:F24)</f>
         <v>763</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="G27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -997,15 +997,15 @@
         <v>149</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
         <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
